--- a/pandas/sv_HUET.xlsx
+++ b/pandas/sv_HUET.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PTDL\pandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\data\PTDL\pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09D10DA0-5F91-44DC-8C60-F445ABEF5375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7988C3DF-A0E6-434E-B88E-436346700D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="643">
   <si>
     <t>Quê quán</t>
   </si>
@@ -131,9 +131,6 @@
     <t xml:space="preserve">chơi thể thao </t>
   </si>
   <si>
-    <t xml:space="preserve">Hà Tĩnh </t>
-  </si>
-  <si>
     <t>Đức Thọ</t>
   </si>
   <si>
@@ -192,9 +189,6 @@
   </si>
   <si>
     <t>học tiếng anh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hà tĩnh </t>
   </si>
   <si>
     <t>Nguyễn trung thiên</t>
@@ -2375,8 +2369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:O169"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2402,22 +2396,22 @@
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>0</v>
@@ -2429,22 +2423,22 @@
         <v>2</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="P1" s="1"/>
     </row>
@@ -2453,19 +2447,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>426</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>5</v>
@@ -2502,19 +2496,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>429</v>
-      </c>
       <c r="E3" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>5</v>
@@ -2550,19 +2544,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>5</v>
@@ -2598,19 +2592,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>5</v>
@@ -2646,19 +2640,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>5</v>
@@ -2694,43 +2688,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="12">
         <v>8.6999999999999993</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="9">
         <v>400000</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O7" s="9">
         <v>7.7</v>
@@ -2742,19 +2736,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>5</v>
@@ -2766,19 +2760,19 @@
         <v>7.7</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="9">
         <v>2100000</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O8" s="9">
         <v>7.3</v>
@@ -2790,43 +2784,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>442</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="12">
         <v>8.6999999999999993</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M9" s="9">
         <v>700000</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="9">
         <v>8.5</v>
@@ -2838,43 +2832,43 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="12">
         <v>7.6</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="9">
         <v>2350000</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="9">
         <v>7.1</v>
@@ -2886,25 +2880,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="12">
         <v>8.6</v>
@@ -2913,16 +2907,16 @@
         <v>12</v>
       </c>
       <c r="K11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="M11" s="9">
         <v>1200000</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O11" s="9">
         <v>7.4</v>
@@ -2934,43 +2928,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I12" s="12">
         <v>7.5</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M12" s="9">
         <v>4220000</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O12" s="9">
         <v>8.1999999999999993</v>
@@ -2982,43 +2976,43 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I13" s="12">
         <v>6.8</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M13" s="9">
         <v>3200000</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O13" s="9">
         <v>8.8000000000000007</v>
@@ -3030,43 +3024,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="12">
         <v>7.8</v>
       </c>
       <c r="J14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>62</v>
       </c>
       <c r="M14" s="9">
         <v>0</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O14" s="9">
         <v>7.8</v>
@@ -3078,43 +3072,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" s="12">
         <v>6.7</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M15" s="9">
         <v>800000</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O15" s="9">
         <v>7.3</v>
@@ -3126,43 +3120,43 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>456</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I16" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M16" s="9">
         <v>900000</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O16" s="9">
         <v>7.1</v>
@@ -3174,31 +3168,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>459</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="12">
         <v>8.1</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>23</v>
@@ -3210,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O17" s="9">
         <v>9</v>
@@ -3222,25 +3216,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I18" s="12">
         <v>7.3</v>
@@ -3249,16 +3243,16 @@
         <v>22</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M18" s="9">
         <v>2300000</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O18" s="9">
         <v>7.9</v>
@@ -3270,43 +3264,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I19" s="12">
         <v>8</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M19" s="9">
         <v>4320213</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O19" s="9">
         <v>8.9</v>
@@ -3318,43 +3312,43 @@
         <v>19</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>466</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" s="12">
         <v>7.5</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M20" s="9">
         <v>3320021</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O20" s="9">
         <v>6.7</v>
@@ -3366,43 +3360,43 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="12">
         <v>8.6</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M21" s="9">
         <v>1000000</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O21" s="9">
         <v>8.3000000000000007</v>
@@ -3414,19 +3408,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>5</v>
@@ -3438,19 +3432,19 @@
         <v>7.8</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" s="9">
         <v>500000</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O22" s="9">
         <v>7.6</v>
@@ -3462,19 +3456,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>5</v>
@@ -3486,19 +3480,19 @@
         <v>8.4</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M23" s="9">
         <v>0</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O23" s="9">
         <v>7.8</v>
@@ -3510,25 +3504,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I24" s="12">
         <v>7.5</v>
@@ -3537,16 +3531,16 @@
         <v>12</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M24" s="9">
         <v>2000000</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O24" s="9">
         <v>8.5</v>
@@ -3558,43 +3552,43 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>476</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I25" s="12">
         <v>8.1</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M25" s="9">
         <v>0</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O25" s="9">
         <v>7.4</v>
@@ -3606,43 +3600,43 @@
         <v>25</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I26" s="12">
         <v>8</v>
       </c>
       <c r="J26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="M26" s="9">
         <v>0</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O26" s="9">
         <v>7.4</v>
@@ -3654,43 +3648,43 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>481</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I27" s="12">
         <v>7.9</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M27" s="9">
         <v>0</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O27" s="9">
         <v>8.6</v>
@@ -3702,19 +3696,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>5</v>
@@ -3726,10 +3720,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>9</v>
@@ -3738,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O28" s="9">
         <v>7.2</v>
@@ -3750,43 +3744,43 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I29" s="12">
         <v>7.9</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M29" s="9">
         <v>50000</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O29" s="9">
         <v>7</v>
@@ -3798,19 +3792,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>5</v>
@@ -3822,19 +3816,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M30" s="9">
         <v>0</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O30" s="9">
         <v>8.5</v>
@@ -3846,43 +3840,43 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I31" s="12">
         <v>7.6</v>
       </c>
       <c r="J31" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L31" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="M31" s="9">
         <v>2300000</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O31" s="9">
         <v>7</v>
@@ -3894,19 +3888,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>5</v>
@@ -3918,19 +3912,19 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="J32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>120</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="M32" s="9">
         <v>1300000</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O32" s="9">
         <v>8.6</v>
@@ -3942,43 +3936,43 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I33" s="12">
         <v>8.3000000000000007</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M33" s="9">
         <v>2200000</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O33" s="9">
         <v>8.1</v>
@@ -3990,43 +3984,43 @@
         <v>33</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G34" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I34" s="12">
         <v>7.4</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M34" s="9">
         <v>70000</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O34" s="9">
         <v>7.9</v>
@@ -4038,43 +4032,43 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>496</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I35" s="12">
         <v>7.5</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M35" s="9">
         <v>0</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O35" s="9">
         <v>8.1999999999999993</v>
@@ -4086,19 +4080,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>499</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>5</v>
@@ -4110,19 +4104,19 @@
         <v>7.6</v>
       </c>
       <c r="J36" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>134</v>
       </c>
       <c r="M36" s="9">
         <v>0</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O36" s="9">
         <v>7.2</v>
@@ -4134,19 +4128,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>5</v>
@@ -4158,19 +4152,19 @@
         <v>8.6</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M37" s="9">
         <v>110000</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O37" s="9">
         <v>7.1</v>
@@ -4182,19 +4176,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="E38" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>5</v>
@@ -4212,13 +4206,13 @@
         <v>23</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M38" s="9">
         <v>0</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O38" s="9">
         <v>8.3000000000000007</v>
@@ -4230,25 +4224,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="E39" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I39" s="12">
         <v>8.1999999999999993</v>
@@ -4257,16 +4251,16 @@
         <v>22</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M39" s="9">
         <v>0</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O39" s="9">
         <v>8.6999999999999993</v>
@@ -4278,43 +4272,43 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="E40" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="I40" s="12">
         <v>8.5</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M40" s="9">
         <v>0</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O40" s="9">
         <v>8</v>
@@ -4326,43 +4320,43 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>552</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I41" s="12">
         <v>7.8</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M41" s="9">
         <v>3000000</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O41" s="9">
         <v>7.5</v>
@@ -4374,43 +4368,43 @@
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G42" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" s="12">
         <v>8.1</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M42" s="9">
         <v>1500000</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O42" s="9">
         <v>7.8</v>
@@ -4422,43 +4416,43 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G43" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I43" s="12">
         <v>9.4</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M43" s="15">
         <v>1000000</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O43" s="9">
         <v>8.9</v>
@@ -4470,25 +4464,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="D44" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>559</v>
-      </c>
       <c r="E44" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I44" s="12">
         <v>8.6</v>
@@ -4497,16 +4491,16 @@
         <v>22</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M44" s="9">
         <v>0</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O44" s="9">
         <v>8.6999999999999993</v>
@@ -4518,43 +4512,43 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I45" s="12">
         <v>7.4</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M45" s="9">
         <v>2000000</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O45" s="9">
         <v>7.1</v>
@@ -4566,43 +4560,43 @@
         <v>45</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>564</v>
-      </c>
       <c r="E46" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I46" s="12">
         <v>7.5</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L46" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M46" s="9">
         <v>1000000</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O46" s="9">
         <v>7.2</v>
@@ -4614,43 +4608,43 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I47" s="12">
         <v>7.1</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M47" s="9">
         <v>500000</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O47" s="9">
         <v>6.9</v>
@@ -4662,43 +4656,43 @@
         <v>47</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" s="12">
         <v>8.6</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M48" s="9">
         <v>100000</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O48" s="9">
         <v>8.1999999999999993</v>
@@ -4710,25 +4704,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G49" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I49" s="12">
         <v>9.1</v>
@@ -4737,7 +4731,7 @@
         <v>22</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>29</v>
@@ -4746,7 +4740,7 @@
         <v>4000000</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O49" s="9">
         <v>8.6</v>
@@ -4758,43 +4752,43 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I50" s="12">
         <v>8.5</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M50" s="9">
         <v>50000</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O50" s="9">
         <v>8.1</v>
@@ -4806,43 +4800,43 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>575</v>
-      </c>
       <c r="E51" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I51" s="12">
         <v>7.8</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K51" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M51" s="9">
         <v>1500000</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O51" s="9">
         <v>7.5</v>
@@ -4854,43 +4848,43 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I52" s="12">
         <v>8.6</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M52" s="9">
         <v>3000000</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O52" s="9">
         <v>8.1999999999999993</v>
@@ -4902,43 +4896,43 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>580</v>
-      </c>
       <c r="E53" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I53" s="12">
         <v>7.8</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M53" s="9">
         <v>1500000</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="9">
         <v>7.4</v>
@@ -4950,43 +4944,43 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I54" s="12">
         <v>9.5</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M54" s="9">
         <v>0</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O54" s="9">
         <v>7.6</v>
@@ -4998,43 +4992,43 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G55" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" s="12">
         <v>7.8</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M55" s="9">
         <v>100000</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="9">
         <v>7.5</v>
@@ -5046,43 +5040,43 @@
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I56" s="12">
         <v>8.4</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K56" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M56" s="9">
         <v>2000000</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O56" s="9">
         <v>8.1</v>
@@ -5094,43 +5088,43 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" s="12">
         <v>7.3</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M57" s="9">
         <v>0</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O57" s="9">
         <v>7.1</v>
@@ -5142,19 +5136,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>5</v>
@@ -5166,19 +5160,19 @@
         <v>7.5</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M58" s="9">
         <v>500000</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O58" s="9">
         <v>7.2</v>
@@ -5190,43 +5184,43 @@
         <v>58</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I59" s="12">
         <v>9.4</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M59" s="9">
         <v>1500000</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O59" s="9">
         <v>9.1</v>
@@ -5238,19 +5232,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>5</v>
@@ -5262,19 +5256,19 @@
         <v>9.5</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K60" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M60" s="9">
         <v>3000000</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="9">
         <v>9.1</v>
@@ -5286,43 +5280,43 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I61" s="12">
         <v>7.9</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M61" s="9">
         <v>2000000</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="9">
         <v>7.6</v>
@@ -5334,25 +5328,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I62" s="12">
         <v>8.9</v>
@@ -5364,13 +5358,13 @@
         <v>23</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M62" s="9">
         <v>500000</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O62" s="9">
         <v>8.5</v>
@@ -5382,43 +5376,43 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>5</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I63" s="12">
         <v>8.8000000000000007</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M63" s="9">
         <v>1500000</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O63" s="9">
         <v>8.4</v>
@@ -5430,43 +5424,43 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" s="12">
         <v>7.8</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K64" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L64" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M64" s="9">
         <v>2000000</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="9">
         <v>7.1</v>
@@ -5478,43 +5472,43 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D65" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>506</v>
-      </c>
       <c r="E65" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G65" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I65" s="12">
         <v>8.6</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K65" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M65" s="9">
         <v>1000000</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="9">
         <v>8</v>
@@ -5526,43 +5520,43 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" s="12">
         <v>7.8</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K66" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M66" s="9">
         <v>500000</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O66" s="9">
         <v>7.3</v>
@@ -5574,43 +5568,43 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>511</v>
-      </c>
       <c r="E67" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I67" s="12">
         <v>9.5</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M67" s="9">
         <v>0</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O67" s="9">
         <v>9.1999999999999993</v>
@@ -5622,43 +5616,43 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I68" s="12">
         <v>7.8</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K68" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M68" s="9">
         <v>2000000</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O68" s="9">
         <v>7.2</v>
@@ -5670,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I69" s="12">
         <v>8.4</v>
@@ -5700,13 +5694,13 @@
         <v>23</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M69" s="9">
         <v>2000000</v>
       </c>
       <c r="N69" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O69" s="9">
         <v>8</v>
@@ -5718,43 +5712,43 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I70" s="12">
         <v>7.5</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K70" s="12" t="s">
         <v>8</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M70" s="9">
         <v>500000</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O70" s="9">
         <v>7.3</v>
@@ -5766,43 +5760,43 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I71" s="16">
         <v>45113</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K71" s="12" t="s">
         <v>13</v>
       </c>
       <c r="L71" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M71" s="9">
         <v>1000000</v>
       </c>
       <c r="N71" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O71" s="9">
         <v>6.5</v>
@@ -5814,31 +5808,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I72" s="16">
         <v>45145</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K72" s="12" t="s">
         <v>18</v>
@@ -5850,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O72" s="9">
         <v>6.9</v>
@@ -5862,25 +5856,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I73" s="16">
         <v>45025</v>
@@ -5892,13 +5886,13 @@
         <v>23</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M73" s="9">
         <v>2000000</v>
       </c>
       <c r="N73" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O73" s="9">
         <v>9.1</v>
@@ -5910,43 +5904,43 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G74" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" s="12">
         <v>9</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K74" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M74" s="9">
         <v>1000000</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O74" s="9">
         <v>8.5</v>
@@ -5958,43 +5952,43 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>526</v>
-      </c>
       <c r="E75" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I75" s="12">
         <v>7.5</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M75" s="9">
         <v>500000</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O75" s="9">
         <v>6.7</v>
@@ -6006,43 +6000,43 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="D76" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>529</v>
-      </c>
       <c r="E76" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I76" s="16">
         <v>45145</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K76" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M76" s="9">
         <v>0</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O76" s="9">
         <v>7.5</v>
@@ -6054,43 +6048,43 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I77" s="12">
         <v>8.6</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K77" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M77" s="9">
         <v>2000000</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O77" s="9">
         <v>8.1</v>
@@ -6102,25 +6096,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I78" s="12">
         <v>7.9</v>
@@ -6132,13 +6126,13 @@
         <v>23</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M78" s="9">
         <v>2000000</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O78" s="9">
         <v>7.5</v>
@@ -6150,43 +6144,43 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I79" s="12">
         <v>9</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M79" s="9">
         <v>1000000</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O79" s="9">
         <v>7.3</v>
@@ -6198,43 +6192,43 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I80" s="16">
         <v>45023</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M80" s="9">
         <v>0</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O80" s="9">
         <v>7</v>
@@ -6246,43 +6240,43 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I81" s="16">
         <v>44935</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M81" s="9">
         <v>500000</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O81" s="9">
         <v>8.6</v>
@@ -6294,43 +6288,43 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>541</v>
-      </c>
       <c r="E82" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I82" s="12">
         <v>8.6</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M82" s="9">
         <v>0</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O82" s="9">
         <v>8.1999999999999993</v>
@@ -6342,43 +6336,43 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I83" s="16">
         <v>45054</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K83" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M83" s="9">
         <v>500000</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O83" s="9">
         <v>7</v>
@@ -6390,43 +6384,43 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I84" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K84" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M84" s="9">
         <v>900000</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O84" s="9">
         <v>7.1</v>
@@ -6438,31 +6432,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I85" s="12">
         <v>8.1</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K85" s="12" t="s">
         <v>23</v>
@@ -6474,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O85" s="9">
         <v>9</v>
@@ -6486,25 +6480,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I86" s="12">
         <v>7.3</v>
@@ -6513,16 +6507,16 @@
         <v>22</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M86" s="9">
         <v>2300000</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O86" s="9">
         <v>7.9</v>
@@ -6534,43 +6528,43 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>608</v>
-      </c>
       <c r="E87" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I87" s="12">
         <v>8</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K87" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M87" s="9">
         <v>4320213</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O87" s="9">
         <v>8.9</v>
@@ -6582,43 +6576,43 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I88" s="12">
         <v>7.5</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K88" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M88" s="9">
         <v>3320021</v>
       </c>
       <c r="N88" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O88" s="9">
         <v>6.7</v>
@@ -6630,43 +6624,43 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="D89" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>613</v>
-      </c>
       <c r="E89" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G89" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I89" s="12">
         <v>8.6</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K89" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M89" s="9">
         <v>1000000</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O89" s="9">
         <v>8.3000000000000007</v>
@@ -6678,43 +6672,43 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D90" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>616</v>
-      </c>
       <c r="E90" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I90" s="12">
         <v>7.8</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M90" s="9">
         <v>500000</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O90" s="9">
         <v>7.6</v>
@@ -6726,43 +6720,43 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D91" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>619</v>
-      </c>
       <c r="E91" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I91" s="12">
         <v>8.4</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M91" s="9">
         <v>0</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O91" s="9">
         <v>7.8</v>
@@ -6774,25 +6768,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I92" s="12">
         <v>7.5</v>
@@ -6801,16 +6795,16 @@
         <v>12</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M92" s="9">
         <v>2000000</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O92" s="9">
         <v>8.5</v>
@@ -6822,43 +6816,43 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I93" s="12">
         <v>8.1</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M93" s="9">
         <v>0</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O93" s="9">
         <v>7.4</v>
@@ -6870,43 +6864,43 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I94" s="12">
         <v>8</v>
       </c>
       <c r="J94" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="L94" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="M94" s="9">
         <v>0</v>
       </c>
       <c r="N94" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O94" s="9">
         <v>7.4</v>
@@ -6918,43 +6912,43 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I95" s="12">
         <v>7.9</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M95" s="9">
         <v>0</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O95" s="9">
         <v>8.6</v>
@@ -6966,34 +6960,34 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D96" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>627</v>
-      </c>
       <c r="E96" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I96" s="12">
         <v>8.3000000000000007</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L96" s="12" t="s">
         <v>9</v>
@@ -7002,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O96" s="9">
         <v>7.2</v>
@@ -7014,43 +7008,43 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I97" s="12">
         <v>7.9</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K97" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M97" s="9">
         <v>50000</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O97" s="9">
         <v>7</v>
@@ -7062,43 +7056,43 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I98" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M98" s="9">
         <v>0</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O98" s="9">
         <v>8.5</v>
@@ -7110,43 +7104,43 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G99" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I99" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K99" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L99" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M99" s="17">
         <v>0</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O99" s="17">
         <v>9</v>
@@ -7158,43 +7152,43 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C100" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D100" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="E100" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F100" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="G100" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I100" s="12">
         <v>7.5</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M100" s="17">
         <v>0</v>
       </c>
       <c r="N100" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O100" s="17">
         <v>6.7</v>
@@ -7206,37 +7200,37 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G101" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I101" s="12">
         <v>7.9</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M101" s="17">
         <v>0</v>
@@ -7254,43 +7248,43 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G102" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I102" s="12">
         <v>8</v>
       </c>
       <c r="J102" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="K102" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="L102" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="K102" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="L102" s="12" t="s">
-        <v>215</v>
       </c>
       <c r="M102" s="9">
         <v>1000000</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O102" s="9">
         <v>7.4</v>
@@ -7302,43 +7296,43 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I103" s="12">
         <v>7.8</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K103" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M103" s="17">
         <v>1000000</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O103" s="17">
         <v>6.7</v>
@@ -7350,43 +7344,43 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G104" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I104" s="12">
         <v>8.1</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K104" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L104" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M104" s="17">
         <v>1550000</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O104" s="17">
         <v>7.5</v>
@@ -7398,43 +7392,43 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G105" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I105" s="12">
         <v>8</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M105" s="17">
         <v>1200000</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O105" s="17">
         <v>7</v>
@@ -7446,43 +7440,43 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H106" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D106" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="H106" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="I106" s="12">
         <v>7.8</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M106" s="17">
         <v>900000</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O106" s="17">
         <v>6</v>
@@ -7494,43 +7488,43 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="H107" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D107" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G107" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H107" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="I107" s="12">
         <v>7.4</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M107" s="17">
         <v>1200000</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O107" s="17">
         <v>5</v>
@@ -7542,19 +7536,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G108" s="12" t="s">
         <v>5</v>
@@ -7566,19 +7560,19 @@
         <v>7.5</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K108" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M108" s="17">
         <v>1550000</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O108" s="9">
         <v>8.1</v>
@@ -7590,19 +7584,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>5</v>
@@ -7614,19 +7608,19 @@
         <v>8.5</v>
       </c>
       <c r="J109" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L109" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M109" s="17">
         <v>1200000</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O109" s="9">
         <v>7.9</v>
@@ -7638,37 +7632,37 @@
         <v>109</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H110" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H110" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="I110" s="12">
         <v>7.6</v>
       </c>
       <c r="J110" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K110" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M110" s="17">
         <v>1550000</v>
@@ -7686,25 +7680,25 @@
         <v>110</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D111" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H111" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H111" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="I111" s="12">
         <v>7.5</v>
@@ -7713,7 +7707,7 @@
         <v>12</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L111" s="12" t="s">
         <v>29</v>
@@ -7734,37 +7728,37 @@
         <v>111</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G112" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I112" s="12">
         <v>7.8</v>
       </c>
       <c r="J112" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M112" s="17">
         <v>900000</v>
@@ -7782,43 +7776,43 @@
         <v>112</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G113" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I113" s="12">
         <v>7.2</v>
       </c>
       <c r="J113" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K113" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M113" s="17">
         <v>900000</v>
       </c>
       <c r="N113" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O113" s="9">
         <v>7.4</v>
@@ -7830,43 +7824,43 @@
         <v>113</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G114" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I114" s="12">
         <v>8.3000000000000007</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K114" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L114" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M114" s="17">
         <v>1550000</v>
       </c>
       <c r="N114" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O114" s="9">
         <v>8.6</v>
@@ -7878,43 +7872,43 @@
         <v>114</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H115" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G115" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H115" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="I115" s="16">
         <v>44934</v>
       </c>
       <c r="J115" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K115" s="12" t="s">
         <v>28</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M115" s="17">
         <v>1200000</v>
       </c>
       <c r="N115" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O115" s="9">
         <v>7.2</v>
@@ -7926,43 +7920,43 @@
         <v>115</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G116" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I116" s="12">
         <v>7.8</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L116" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M116" s="17">
         <v>900000</v>
       </c>
       <c r="N116" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O116" s="9">
         <v>7</v>
@@ -7974,43 +7968,43 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H117" s="12" t="s">
         <v>268</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F117" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G117" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H117" s="12" t="s">
-        <v>270</v>
       </c>
       <c r="I117" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J117" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K117" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M117" s="17">
         <v>1200000</v>
       </c>
       <c r="N117" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O117" s="9">
         <v>8.5</v>
@@ -8022,41 +8016,41 @@
         <v>117</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G118" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I118" s="12">
         <v>8.5</v>
       </c>
       <c r="J118" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M118" s="21"/>
       <c r="N118" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O118" s="9">
         <v>7.7</v>
@@ -8068,43 +8062,43 @@
         <v>118</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G119" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I119" s="12">
         <v>7.8</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K119" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L119" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M119" s="17">
         <v>1550000</v>
       </c>
       <c r="N119" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O119" s="9">
         <v>7.3</v>
@@ -8116,43 +8110,43 @@
         <v>119</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G120" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I120" s="12">
         <v>8.6</v>
       </c>
       <c r="J120" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M120" s="17">
         <v>900000</v>
       </c>
       <c r="N120" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O120" s="9">
         <v>8.5</v>
@@ -8164,43 +8158,43 @@
         <v>120</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I121" s="12">
         <v>7.8</v>
       </c>
       <c r="J121" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M121" s="17">
         <v>900000</v>
       </c>
       <c r="N121" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O121" s="9">
         <v>7.1</v>
@@ -8212,43 +8206,43 @@
         <v>121</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I122" s="12">
         <v>8.9</v>
       </c>
       <c r="J122" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L122" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M122" s="17">
         <v>900000</v>
       </c>
       <c r="N122" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O122" s="9">
         <v>7.4</v>
@@ -8260,19 +8254,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G123" s="12" t="s">
         <v>5</v>
@@ -8284,19 +8278,19 @@
         <v>8.5</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M123" s="17">
         <v>1200000</v>
       </c>
       <c r="N123" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O123" s="9">
         <v>8.1999999999999993</v>
@@ -8308,43 +8302,43 @@
         <v>123</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G124" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I124" s="12">
         <v>7.4</v>
       </c>
       <c r="J124" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K124" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M124" s="17">
         <v>1200000</v>
       </c>
       <c r="N124" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O124" s="9">
         <v>8.8000000000000007</v>
@@ -8356,43 +8350,43 @@
         <v>124</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G125" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I125" s="12">
         <v>8.1</v>
       </c>
       <c r="J125" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K125" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L125" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M125" s="17">
         <v>1550000</v>
       </c>
       <c r="N125" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O125" s="9">
         <v>7.8</v>
@@ -8404,43 +8398,43 @@
         <v>125</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G126" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I126" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J126" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K126" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M126" s="17">
         <v>1550000</v>
       </c>
       <c r="N126" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O126" s="9">
         <v>7.3</v>
@@ -8452,43 +8446,43 @@
         <v>126</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H127" s="12" t="s">
         <v>297</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D127" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H127" s="12" t="s">
-        <v>299</v>
       </c>
       <c r="I127" s="12">
         <v>9</v>
       </c>
       <c r="J127" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L127" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M127" s="9">
         <v>1550000</v>
       </c>
       <c r="N127" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O127" s="9">
         <v>7.1</v>
@@ -8500,19 +8494,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>5</v>
@@ -8524,19 +8518,19 @@
         <v>8.6</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K128" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M128" s="17">
         <v>1200000</v>
       </c>
       <c r="N128" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O128" s="9">
         <v>9</v>
@@ -8548,43 +8542,43 @@
         <v>128</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I129" s="12">
         <v>8.3000000000000007</v>
       </c>
       <c r="J129" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K129" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L129" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M129" s="17">
         <v>900000</v>
       </c>
       <c r="N129" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O129" s="9">
         <v>7.9</v>
@@ -8596,43 +8590,43 @@
         <v>129</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I130" s="12">
         <v>8.1</v>
       </c>
       <c r="J130" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K130" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M130" s="17">
         <v>1200000</v>
       </c>
       <c r="N130" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O130" s="9">
         <v>8.9</v>
@@ -8644,43 +8638,43 @@
         <v>130</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I131" s="12">
         <v>7.6</v>
       </c>
       <c r="J131" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K131" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M131" s="17">
         <v>900000</v>
       </c>
       <c r="N131" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O131" s="9">
         <v>6.7</v>
@@ -8692,43 +8686,43 @@
         <v>131</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D132" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E132" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="12" t="s">
         <v>315</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G132" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H132" s="12" t="s">
-        <v>317</v>
       </c>
       <c r="I132" s="12">
         <v>7.9</v>
       </c>
       <c r="J132" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K132" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M132" s="17">
         <v>0</v>
       </c>
       <c r="N132" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O132" s="9">
         <v>8.3000000000000007</v>
@@ -8740,43 +8734,43 @@
         <v>132</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I133" s="12">
         <v>7.3</v>
       </c>
       <c r="J133" s="12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K133" s="12" t="s">
         <v>18</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M133" s="17">
         <v>1200000</v>
       </c>
       <c r="N133" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O133" s="9">
         <v>7.6</v>
@@ -8788,43 +8782,43 @@
         <v>133</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I134" s="12">
         <v>8.1999999999999993</v>
       </c>
       <c r="J134" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K134" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M134" s="17">
         <v>1550000</v>
       </c>
       <c r="N134" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O134" s="9">
         <v>7.8</v>
@@ -8836,43 +8830,43 @@
         <v>134</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I135" s="16">
         <v>44965</v>
       </c>
       <c r="J135" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K135" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M135" s="17">
         <v>1550000</v>
       </c>
       <c r="N135" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O135" s="9">
         <v>7.2</v>
@@ -8884,43 +8878,43 @@
         <v>135</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I136" s="12">
         <v>8.6</v>
       </c>
       <c r="J136" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K136" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M136" s="17">
         <v>1200000</v>
       </c>
       <c r="N136" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O136" s="9">
         <v>6.9</v>
@@ -8932,19 +8926,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>5</v>
@@ -8956,19 +8950,19 @@
         <v>8.9</v>
       </c>
       <c r="J137" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K137" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L137" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M137" s="17">
         <v>0</v>
       </c>
       <c r="N137" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O137" s="9">
         <v>8.1999999999999993</v>
@@ -8980,43 +8974,43 @@
         <v>137</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I138" s="12">
         <v>7.7</v>
       </c>
       <c r="J138" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K138" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L138" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M138" s="17">
         <v>900000</v>
       </c>
       <c r="N138" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O138" s="9">
         <v>8.6</v>
@@ -9028,43 +9022,43 @@
         <v>138</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I139" s="12">
         <v>7.9</v>
       </c>
       <c r="J139" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K139" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L139" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M139" s="17">
         <v>1550000</v>
       </c>
       <c r="N139" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O139" s="9">
         <v>8.1</v>
@@ -9076,43 +9070,43 @@
         <v>139</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E140" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F140" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="H140" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="D140" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="F140" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G140" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>347</v>
       </c>
       <c r="I140" s="16">
         <v>44993</v>
       </c>
       <c r="J140" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K140" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L140" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M140" s="17">
         <v>1200000</v>
       </c>
       <c r="N140" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O140" s="9">
         <v>7.5</v>
@@ -9124,43 +9118,43 @@
         <v>140</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G141" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I141" s="12">
         <v>7.8</v>
       </c>
       <c r="J141" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K141" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L141" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M141" s="17">
         <v>900000</v>
       </c>
       <c r="N141" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O141" s="9">
         <v>8.1999999999999993</v>
@@ -9172,31 +9166,31 @@
         <v>141</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G142" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I142" s="12">
         <v>8.6</v>
       </c>
       <c r="J142" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K142" s="12" t="s">
         <v>23</v>
@@ -9208,7 +9202,7 @@
         <v>1550000</v>
       </c>
       <c r="N142" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O142" s="9">
         <v>7.4</v>
@@ -9220,43 +9214,43 @@
         <v>142</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G143" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I143" s="12">
         <v>7.8</v>
       </c>
       <c r="J143" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K143" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M143" s="17">
         <v>0</v>
       </c>
       <c r="N143" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O143" s="9">
         <v>7.9</v>
@@ -9268,25 +9262,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I144" s="12">
         <v>9.5</v>
@@ -9295,16 +9289,16 @@
         <v>22</v>
       </c>
       <c r="K144" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M144" s="17">
         <v>900000</v>
       </c>
       <c r="N144" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O144" s="9">
         <v>7.5</v>
@@ -9316,43 +9310,43 @@
         <v>144</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G145" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I145" s="12">
         <v>7.8</v>
       </c>
       <c r="J145" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K145" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M145" s="17">
         <v>1200000</v>
       </c>
       <c r="N145" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O145" s="9">
         <v>8.1</v>
@@ -9364,43 +9358,43 @@
         <v>145</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G146" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I146" s="12">
         <v>8.4</v>
       </c>
       <c r="J146" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K146" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M146" s="17">
         <v>1550000</v>
       </c>
       <c r="N146" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O146" s="9">
         <v>7.1</v>
@@ -9412,43 +9406,43 @@
         <v>146</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G147" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I147" s="12">
         <v>7.3</v>
       </c>
       <c r="J147" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K147" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M147" s="17">
         <v>1550000</v>
       </c>
       <c r="N147" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O147" s="9">
         <v>7.2</v>
@@ -9460,19 +9454,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G148" s="12" t="s">
         <v>5</v>
@@ -9484,19 +9478,19 @@
         <v>7.5</v>
       </c>
       <c r="J148" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K148" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M148" s="17">
         <v>0</v>
       </c>
       <c r="N148" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O148" s="9">
         <v>9.1</v>
@@ -9508,25 +9502,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G149" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I149" s="12">
         <v>9.4</v>
@@ -9535,16 +9529,16 @@
         <v>22</v>
       </c>
       <c r="K149" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L149" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M149" s="17">
         <v>1200000</v>
       </c>
       <c r="N149" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O149" s="9">
         <v>7.1</v>
@@ -9556,43 +9550,43 @@
         <v>149</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G150" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H150" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I150" s="12">
         <v>9.5</v>
       </c>
       <c r="J150" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K150" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M150" s="17">
         <v>0</v>
       </c>
       <c r="N150" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O150" s="9">
         <v>9</v>
@@ -9604,43 +9598,43 @@
         <v>150</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G151" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H151" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I151" s="12">
         <v>7.9</v>
       </c>
       <c r="J151" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K151" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M151" s="17">
         <v>1550000</v>
       </c>
       <c r="N151" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O151" s="9">
         <v>7.9</v>
@@ -9652,31 +9646,31 @@
         <v>151</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G152" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H152" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I152" s="16">
         <v>45145</v>
       </c>
       <c r="J152" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K152" s="12" t="s">
         <v>23</v>
@@ -9688,7 +9682,7 @@
         <v>1200000</v>
       </c>
       <c r="N152" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O152" s="9">
         <v>8.9</v>
@@ -9700,43 +9694,43 @@
         <v>152</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G153" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H153" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I153" s="12">
         <v>8.6</v>
       </c>
       <c r="J153" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K153" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M153" s="17">
         <v>1200000</v>
       </c>
       <c r="N153" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O153" s="9">
         <v>6.7</v>
@@ -9748,43 +9742,43 @@
         <v>153</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G154" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H154" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I154" s="12">
         <v>7.9</v>
       </c>
       <c r="J154" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K154" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M154" s="17">
         <v>1550000</v>
       </c>
       <c r="N154" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O154" s="9">
         <v>8.3000000000000007</v>
@@ -9796,43 +9790,43 @@
         <v>154</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H155" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I155" s="12">
         <v>9</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K155" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M155" s="17">
         <v>1550000</v>
       </c>
       <c r="N155" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O155" s="9">
         <v>7.6</v>
@@ -9844,25 +9838,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G156" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H156" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I156" s="16">
         <v>45023</v>
@@ -9871,16 +9865,16 @@
         <v>22</v>
       </c>
       <c r="K156" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M156" s="17">
         <v>0</v>
       </c>
       <c r="N156" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O156" s="9">
         <v>7.8</v>
@@ -9892,31 +9886,31 @@
         <v>156</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G157" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I157" s="12">
         <v>8.4</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K157" s="12" t="s">
         <v>23</v>
@@ -9928,7 +9922,7 @@
         <v>900000</v>
       </c>
       <c r="N157" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O157" s="9">
         <v>8.5</v>
@@ -9940,43 +9934,43 @@
         <v>157</v>
       </c>
       <c r="B158" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H158" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="E158" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="F158" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="G158" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H158" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="I158" s="12">
         <v>7.3</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K158" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M158" s="17">
         <v>0</v>
       </c>
       <c r="N158" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O158" s="9">
         <v>7.4</v>
@@ -9988,43 +9982,43 @@
         <v>158</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G159" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I159" s="12">
         <v>7.5</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K159" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M159" s="17">
         <v>1550000</v>
       </c>
       <c r="N159" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O159" s="9">
         <v>7.4</v>
@@ -10036,43 +10030,43 @@
         <v>159</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G160" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I160" s="12">
         <v>9.4</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K160" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M160" s="17">
         <v>0</v>
       </c>
       <c r="N160" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O160" s="9">
         <v>8.6</v>
@@ -10084,25 +10078,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G161" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H161" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I161" s="12">
         <v>9.5</v>
@@ -10111,16 +10105,16 @@
         <v>22</v>
       </c>
       <c r="K161" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L161" s="12" t="s">
         <v>49</v>
-      </c>
-      <c r="L161" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="M161" s="17">
         <v>1550000</v>
       </c>
       <c r="N161" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O161" s="9">
         <v>7.2</v>
@@ -10132,43 +10126,43 @@
         <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G162" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H162" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I162" s="12">
         <v>7.9</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K162" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M162" s="17">
         <v>1200000</v>
       </c>
       <c r="N162" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O162" s="9">
         <v>7</v>
@@ -10180,43 +10174,43 @@
         <v>162</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G163" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I163" s="16">
         <v>45145</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K163" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L163" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M163" s="17">
         <v>1200000</v>
       </c>
       <c r="N163" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O163" s="9">
         <v>8.5</v>
@@ -10228,43 +10222,43 @@
         <v>163</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G164" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I164" s="12">
         <v>8.6</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K164" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L164" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M164" s="17">
         <v>1550000</v>
       </c>
       <c r="N164" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O164" s="17">
         <v>9</v>
@@ -10276,34 +10270,34 @@
         <v>164</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G165" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I165" s="12">
         <v>7.9</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K165" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L165" s="12" t="s">
         <v>29</v>
@@ -10312,7 +10306,7 @@
         <v>1550000</v>
       </c>
       <c r="N165" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O165" s="17">
         <v>6.7</v>
@@ -10324,19 +10318,19 @@
         <v>165</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G166" s="12" t="s">
         <v>5</v>
@@ -10348,19 +10342,19 @@
         <v>9.5</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K166" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L166" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M166" s="17">
         <v>1200000</v>
       </c>
       <c r="N166" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O166" s="17">
         <v>8.1</v>
@@ -10372,43 +10366,43 @@
         <v>166</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G167" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I167" s="12">
         <v>7.9</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K167" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L167" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M167" s="17">
         <v>1550000</v>
       </c>
       <c r="N167" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O167" s="9">
         <v>7.9</v>
@@ -10420,25 +10414,25 @@
         <v>167</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G168" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I168" s="16">
         <v>45145</v>
@@ -10450,13 +10444,13 @@
         <v>23</v>
       </c>
       <c r="L168" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M168" s="17">
         <v>0</v>
       </c>
       <c r="N168" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O168" s="9">
         <v>8.9</v>
@@ -10468,43 +10462,43 @@
         <v>168</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G169" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I169" s="12">
         <v>8.6</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K169" s="12" t="s">
         <v>23</v>
       </c>
       <c r="L169" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M169" s="17">
         <v>1550000</v>
       </c>
       <c r="N169" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O169" s="9">
         <v>6.7</v>
